--- a/assets/files/CV9.xlsx
+++ b/assets/files/CV9.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11580" windowHeight="8484"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -311,12 +311,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -625,1997 +626,1997 @@
   <dimension ref="A1:T32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="T1" sqref="T1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="8" max="8" width="8.85546875" style="4"/>
-    <col min="14" max="14" width="8.85546875" style="4"/>
-    <col min="20" max="20" width="8.85546875" style="4"/>
+    <col min="8" max="8" width="8.88671875" style="3"/>
+    <col min="14" max="14" width="8.88671875" style="3"/>
+    <col min="20" max="20" width="8.88671875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3" t="s">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="M1" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="N1" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="O1" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="P1" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="Q1" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="R1" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="S1" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="T1" s="2" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
         <v>1801</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2" s="4">
         <v>29.145728643216081</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2" s="4">
         <v>39.698492462311556</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E2" s="4">
         <v>14.07035175879397</v>
       </c>
-      <c r="F2" s="1">
+      <c r="F2" s="4">
         <v>12.562814070351759</v>
       </c>
-      <c r="G2" s="1">
+      <c r="G2" s="4">
         <v>4.5226130653266328</v>
       </c>
-      <c r="H2" s="4">
+      <c r="H2" s="5">
         <v>199</v>
       </c>
-      <c r="I2" s="1">
+      <c r="I2" s="4">
         <v>41.798941798941797</v>
       </c>
-      <c r="J2" s="1">
+      <c r="J2" s="4">
         <v>26.455026455026456</v>
       </c>
-      <c r="K2" s="1">
+      <c r="K2" s="4">
         <v>5.2910052910052912</v>
       </c>
-      <c r="L2" s="1">
+      <c r="L2" s="4">
         <v>25.925925925925927</v>
       </c>
-      <c r="M2" s="1">
+      <c r="M2" s="4">
         <v>0.52910052910052907</v>
       </c>
-      <c r="N2" s="4">
+      <c r="N2" s="5">
         <v>189</v>
       </c>
-      <c r="O2" s="1">
+      <c r="O2" s="4">
         <v>35.309278350515463</v>
       </c>
-      <c r="P2" s="1">
+      <c r="P2" s="4">
         <v>33.24742268041237</v>
       </c>
-      <c r="Q2" s="1">
+      <c r="Q2" s="4">
         <v>9.7938144329896915</v>
       </c>
-      <c r="R2" s="1">
+      <c r="R2" s="4">
         <v>19.072164948453608</v>
       </c>
-      <c r="S2" s="1">
+      <c r="S2" s="4">
         <v>2.5773195876288661</v>
       </c>
-      <c r="T2" s="4">
+      <c r="T2" s="5">
         <v>388</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
         <v>1503</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="4">
         <v>27.235772357723576</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="4">
         <v>28.048780487804876</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3" s="4">
         <v>24.796747967479675</v>
       </c>
-      <c r="F3" s="1">
+      <c r="F3" s="4">
         <v>18.699186991869919</v>
       </c>
-      <c r="G3" s="1">
+      <c r="G3" s="4">
         <v>1.2195121951219512</v>
       </c>
-      <c r="H3" s="4">
+      <c r="H3" s="5">
         <v>246</v>
       </c>
-      <c r="I3" s="1">
+      <c r="I3" s="4">
         <v>36.134453781512605</v>
       </c>
-      <c r="J3" s="1">
+      <c r="J3" s="4">
         <v>40.336134453781511</v>
       </c>
-      <c r="K3" s="1">
+      <c r="K3" s="4">
         <v>7.5630252100840334</v>
       </c>
-      <c r="L3" s="1">
+      <c r="L3" s="4">
         <v>14.285714285714286</v>
       </c>
-      <c r="M3" s="1">
+      <c r="M3" s="4">
         <v>1.680672268907563</v>
       </c>
-      <c r="N3" s="4">
+      <c r="N3" s="5">
         <v>119</v>
       </c>
-      <c r="O3" s="1">
+      <c r="O3" s="4">
         <v>30.136986301369863</v>
       </c>
-      <c r="P3" s="1">
+      <c r="P3" s="4">
         <v>32.054794520547944</v>
       </c>
-      <c r="Q3" s="1">
+      <c r="Q3" s="4">
         <v>19.17808219178082</v>
       </c>
-      <c r="R3" s="1">
+      <c r="R3" s="4">
         <v>17.260273972602739</v>
       </c>
-      <c r="S3" s="1">
+      <c r="S3" s="4">
         <v>1.3698630136986301</v>
       </c>
-      <c r="T3" s="4">
+      <c r="T3" s="5">
         <v>365</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B4" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="4">
         <v>14.765100671140939</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="4">
         <v>44.071588366890381</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4" s="4">
         <v>25.950782997762865</v>
       </c>
-      <c r="F4" s="1">
+      <c r="F4" s="4">
         <v>12.527964205816556</v>
       </c>
-      <c r="G4" s="1">
+      <c r="G4" s="4">
         <v>2.6845637583892619</v>
       </c>
-      <c r="H4" s="4">
+      <c r="H4" s="5">
         <v>447</v>
       </c>
-      <c r="I4" s="1">
+      <c r="I4" s="4">
         <v>23.651452282157678</v>
       </c>
-      <c r="J4" s="1">
+      <c r="J4" s="4">
         <v>45.643153526970956</v>
       </c>
-      <c r="K4" s="1">
+      <c r="K4" s="4">
         <v>9.9585062240663902</v>
       </c>
-      <c r="L4" s="1">
+      <c r="L4" s="4">
         <v>18.257261410788381</v>
       </c>
-      <c r="M4" s="1">
+      <c r="M4" s="4">
         <v>2.4896265560165975</v>
       </c>
-      <c r="N4" s="4">
+      <c r="N4" s="5">
         <v>241</v>
       </c>
-      <c r="O4" s="1">
+      <c r="O4" s="4">
         <v>17.877906976744185</v>
       </c>
-      <c r="P4" s="1">
+      <c r="P4" s="4">
         <v>44.622093023255815</v>
       </c>
-      <c r="Q4" s="1">
+      <c r="Q4" s="4">
         <v>20.348837209302324</v>
       </c>
-      <c r="R4" s="1">
+      <c r="R4" s="4">
         <v>14.534883720930232</v>
       </c>
-      <c r="S4" s="1">
+      <c r="S4" s="4">
         <v>2.6162790697674421</v>
       </c>
-      <c r="T4" s="4">
+      <c r="T4" s="5">
         <v>688</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B5" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="4">
         <v>43.037974683544306</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="4">
         <v>39.240506329113927</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5" s="4">
         <v>17.721518987341771</v>
       </c>
-      <c r="F5" s="1">
-        <v>0</v>
-      </c>
-      <c r="G5" s="1">
-        <v>0</v>
-      </c>
-      <c r="H5" s="4">
+      <c r="F5" s="4">
+        <v>0</v>
+      </c>
+      <c r="G5" s="4">
+        <v>0</v>
+      </c>
+      <c r="H5" s="5">
         <v>79</v>
       </c>
-      <c r="I5" s="1">
+      <c r="I5" s="4">
         <v>28.623188405797102</v>
       </c>
-      <c r="J5" s="1">
+      <c r="J5" s="4">
         <v>47.826086956521742</v>
       </c>
-      <c r="K5" s="1">
+      <c r="K5" s="4">
         <v>20.289855072463769</v>
       </c>
-      <c r="L5" s="1">
+      <c r="L5" s="4">
         <v>3.2608695652173911</v>
       </c>
-      <c r="M5" s="1">
-        <v>0</v>
-      </c>
-      <c r="N5" s="4">
+      <c r="M5" s="4">
+        <v>0</v>
+      </c>
+      <c r="N5" s="5">
         <v>276</v>
       </c>
-      <c r="O5" s="1">
+      <c r="O5" s="4">
         <v>31.830985915492956</v>
       </c>
-      <c r="P5" s="1">
+      <c r="P5" s="4">
         <v>45.91549295774648</v>
       </c>
-      <c r="Q5" s="1">
+      <c r="Q5" s="4">
         <v>19.718309859154928</v>
       </c>
-      <c r="R5" s="1">
+      <c r="R5" s="4">
         <v>2.535211267605634</v>
       </c>
-      <c r="S5" s="1">
-        <v>0</v>
-      </c>
-      <c r="T5" s="4">
+      <c r="S5" s="4">
+        <v>0</v>
+      </c>
+      <c r="T5" s="5">
         <v>355</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B6" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="4">
         <v>19.653179190751445</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6" s="4">
         <v>50.867052023121389</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6" s="4">
         <v>20.809248554913296</v>
       </c>
-      <c r="F6" s="1">
+      <c r="F6" s="4">
         <v>6.9364161849710984</v>
       </c>
-      <c r="G6" s="1">
+      <c r="G6" s="4">
         <v>1.7341040462427746</v>
       </c>
-      <c r="H6" s="4">
+      <c r="H6" s="5">
         <v>173</v>
       </c>
-      <c r="I6" s="1">
+      <c r="I6" s="4">
         <v>21.153846153846153</v>
       </c>
-      <c r="J6" s="1">
+      <c r="J6" s="4">
         <v>43.269230769230766</v>
       </c>
-      <c r="K6" s="1">
+      <c r="K6" s="4">
         <v>25.96153846153846</v>
       </c>
-      <c r="L6" s="1">
+      <c r="L6" s="4">
         <v>2.8846153846153846</v>
       </c>
-      <c r="M6" s="1">
+      <c r="M6" s="4">
         <v>6.7307692307692308</v>
       </c>
-      <c r="N6" s="4">
+      <c r="N6" s="5">
         <v>104</v>
       </c>
-      <c r="O6" s="1">
+      <c r="O6" s="4">
         <v>20.216606498194945</v>
       </c>
-      <c r="P6" s="1">
+      <c r="P6" s="4">
         <v>48.014440433212997</v>
       </c>
-      <c r="Q6" s="1">
+      <c r="Q6" s="4">
         <v>22.743682310469314</v>
       </c>
-      <c r="R6" s="1">
+      <c r="R6" s="4">
         <v>5.4151624548736459</v>
       </c>
-      <c r="S6" s="1">
+      <c r="S6" s="4">
         <v>3.6101083032490973</v>
       </c>
-      <c r="T6" s="4">
+      <c r="T6" s="5">
         <v>277</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B7" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7" s="4">
         <v>12.820512820512821</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7" s="4">
         <v>42.051282051282051</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E7" s="4">
         <v>36.410256410256409</v>
       </c>
-      <c r="F7" s="1">
+      <c r="F7" s="4">
         <v>3.5897435897435899</v>
       </c>
-      <c r="G7" s="1">
+      <c r="G7" s="4">
         <v>5.1282051282051286</v>
       </c>
-      <c r="H7" s="4">
+      <c r="H7" s="5">
         <v>195</v>
       </c>
-      <c r="I7" s="1">
+      <c r="I7" s="4">
         <v>4.694835680751174</v>
       </c>
-      <c r="J7" s="1">
+      <c r="J7" s="4">
         <v>42.25352112676056</v>
       </c>
-      <c r="K7" s="1">
+      <c r="K7" s="4">
         <v>46.478873239436616</v>
       </c>
-      <c r="L7" s="1">
+      <c r="L7" s="4">
         <v>1.408450704225352</v>
       </c>
-      <c r="M7" s="1">
+      <c r="M7" s="4">
         <v>5.164319248826291</v>
       </c>
-      <c r="N7" s="4">
+      <c r="N7" s="5">
         <v>213</v>
       </c>
-      <c r="O7" s="1">
+      <c r="O7" s="4">
         <v>8.5784313725490193</v>
       </c>
-      <c r="P7" s="1">
+      <c r="P7" s="4">
         <v>42.156862745098039</v>
       </c>
-      <c r="Q7" s="1">
+      <c r="Q7" s="4">
         <v>41.666666666666664</v>
       </c>
-      <c r="R7" s="1">
+      <c r="R7" s="4">
         <v>2.4509803921568629</v>
       </c>
-      <c r="S7" s="1">
+      <c r="S7" s="4">
         <v>5.1470588235294121</v>
       </c>
-      <c r="T7" s="4">
+      <c r="T7" s="5">
         <v>408</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B8" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8" s="4">
         <v>13.953488372093023</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D8" s="4">
         <v>18.604651162790699</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E8" s="4">
         <v>4.6511627906976747</v>
       </c>
-      <c r="F8" s="1">
+      <c r="F8" s="4">
         <v>62.790697674418603</v>
       </c>
-      <c r="G8" s="1">
-        <v>0</v>
-      </c>
-      <c r="H8" s="4">
+      <c r="G8" s="4">
+        <v>0</v>
+      </c>
+      <c r="H8" s="5">
         <v>43</v>
       </c>
-      <c r="I8" s="1">
+      <c r="I8" s="4">
         <v>25.460122699386503</v>
       </c>
-      <c r="J8" s="1">
+      <c r="J8" s="4">
         <v>31.288343558282207</v>
       </c>
-      <c r="K8" s="1">
+      <c r="K8" s="4">
         <v>16.871165644171779</v>
       </c>
-      <c r="L8" s="1">
+      <c r="L8" s="4">
         <v>26.073619631901842</v>
       </c>
-      <c r="M8" s="1">
+      <c r="M8" s="4">
         <v>0.30674846625766872</v>
       </c>
-      <c r="N8" s="4">
+      <c r="N8" s="5">
         <v>326</v>
       </c>
-      <c r="O8" s="1">
+      <c r="O8" s="4">
         <v>24.119241192411923</v>
       </c>
-      <c r="P8" s="1">
+      <c r="P8" s="4">
         <v>29.810298102981029</v>
       </c>
-      <c r="Q8" s="1">
+      <c r="Q8" s="4">
         <v>15.447154471544716</v>
       </c>
-      <c r="R8" s="1">
+      <c r="R8" s="4">
         <v>30.352303523035232</v>
       </c>
-      <c r="S8" s="1">
+      <c r="S8" s="4">
         <v>0.27100271002710025</v>
       </c>
-      <c r="T8" s="4">
+      <c r="T8" s="5">
         <v>369</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B9" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C9" s="4">
         <v>15.040650406504065</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D9" s="4">
         <v>30.894308943089431</v>
       </c>
-      <c r="E9" s="1">
+      <c r="E9" s="4">
         <v>44.308943089430898</v>
       </c>
-      <c r="F9" s="1">
+      <c r="F9" s="4">
         <v>8.536585365853659</v>
       </c>
-      <c r="G9" s="1">
+      <c r="G9" s="4">
         <v>1.2195121951219512</v>
       </c>
-      <c r="H9" s="4">
+      <c r="H9" s="5">
         <v>246</v>
       </c>
-      <c r="I9" s="1">
+      <c r="I9" s="4">
         <v>32.374100719424462</v>
       </c>
-      <c r="J9" s="1">
+      <c r="J9" s="4">
         <v>41.726618705035975</v>
       </c>
-      <c r="K9" s="1">
+      <c r="K9" s="4">
         <v>10.791366906474821</v>
       </c>
-      <c r="L9" s="1">
+      <c r="L9" s="4">
         <v>14.388489208633093</v>
       </c>
-      <c r="M9" s="1">
+      <c r="M9" s="4">
         <v>0.71942446043165464</v>
       </c>
-      <c r="N9" s="4">
+      <c r="N9" s="5">
         <v>139</v>
       </c>
-      <c r="O9" s="1">
+      <c r="O9" s="4">
         <v>21.2987012987013</v>
       </c>
-      <c r="P9" s="1">
+      <c r="P9" s="4">
         <v>34.805194805194802</v>
       </c>
-      <c r="Q9" s="1">
+      <c r="Q9" s="4">
         <v>32.20779220779221</v>
       </c>
-      <c r="R9" s="1">
+      <c r="R9" s="4">
         <v>10.64935064935065</v>
       </c>
-      <c r="S9" s="1">
+      <c r="S9" s="4">
         <v>1.0389610389610389</v>
       </c>
-      <c r="T9" s="4">
+      <c r="T9" s="5">
         <v>385</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B10" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C10" s="4">
         <v>14.942528735632184</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D10" s="4">
         <v>43.678160919540232</v>
       </c>
-      <c r="E10" s="1">
+      <c r="E10" s="4">
         <v>41.379310344827587</v>
       </c>
-      <c r="F10" s="1">
-        <v>0</v>
-      </c>
-      <c r="G10" s="1">
-        <v>0</v>
-      </c>
-      <c r="H10" s="4">
+      <c r="F10" s="4">
+        <v>0</v>
+      </c>
+      <c r="G10" s="4">
+        <v>0</v>
+      </c>
+      <c r="H10" s="5">
         <v>87</v>
       </c>
-      <c r="I10" s="1">
+      <c r="I10" s="4">
         <v>8.5409252669039137</v>
       </c>
-      <c r="J10" s="1">
+      <c r="J10" s="4">
         <v>35.943060498220639</v>
       </c>
-      <c r="K10" s="1">
+      <c r="K10" s="4">
         <v>50.889679715302492</v>
       </c>
-      <c r="L10" s="1">
+      <c r="L10" s="4">
         <v>3.5587188612099645</v>
       </c>
-      <c r="M10" s="1">
+      <c r="M10" s="4">
         <v>1.0676156583629892</v>
       </c>
-      <c r="N10" s="4">
+      <c r="N10" s="5">
         <v>281</v>
       </c>
-      <c r="O10" s="1">
+      <c r="O10" s="4">
         <v>10.054347826086957</v>
       </c>
-      <c r="P10" s="1">
+      <c r="P10" s="4">
         <v>37.771739130434781</v>
       </c>
-      <c r="Q10" s="1">
+      <c r="Q10" s="4">
         <v>48.641304347826086</v>
       </c>
-      <c r="R10" s="1">
+      <c r="R10" s="4">
         <v>2.7173913043478262</v>
       </c>
-      <c r="S10" s="1">
+      <c r="S10" s="4">
         <v>0.81521739130434778</v>
       </c>
-      <c r="T10" s="4">
+      <c r="T10" s="5">
         <v>368</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B11" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C11" s="4">
         <v>1.5</v>
       </c>
-      <c r="D11" s="1">
+      <c r="D11" s="4">
         <v>22.5</v>
       </c>
-      <c r="E11" s="1">
+      <c r="E11" s="4">
         <v>76</v>
       </c>
-      <c r="F11" s="1">
-        <v>0</v>
-      </c>
-      <c r="G11" s="1">
-        <v>0</v>
-      </c>
-      <c r="H11" s="4">
+      <c r="F11" s="4">
+        <v>0</v>
+      </c>
+      <c r="G11" s="4">
+        <v>0</v>
+      </c>
+      <c r="H11" s="5">
         <v>200</v>
       </c>
-      <c r="I11" s="1">
+      <c r="I11" s="4">
         <v>1.1235955056179776</v>
       </c>
-      <c r="J11" s="1">
+      <c r="J11" s="4">
         <v>15.168539325842696</v>
       </c>
-      <c r="K11" s="1">
+      <c r="K11" s="4">
         <v>79.213483146067418</v>
       </c>
-      <c r="L11" s="1">
+      <c r="L11" s="4">
         <v>4.4943820224719104</v>
       </c>
-      <c r="M11" s="1">
-        <v>0</v>
-      </c>
-      <c r="N11" s="4">
+      <c r="M11" s="4">
+        <v>0</v>
+      </c>
+      <c r="N11" s="5">
         <v>178</v>
       </c>
-      <c r="O11" s="1">
+      <c r="O11" s="4">
         <v>1.3227513227513228</v>
       </c>
-      <c r="P11" s="1">
+      <c r="P11" s="4">
         <v>19.047619047619047</v>
       </c>
-      <c r="Q11" s="1">
+      <c r="Q11" s="4">
         <v>77.51322751322752</v>
       </c>
-      <c r="R11" s="1">
+      <c r="R11" s="4">
         <v>2.1164021164021163</v>
       </c>
-      <c r="S11" s="1">
-        <v>0</v>
-      </c>
-      <c r="T11" s="4">
+      <c r="S11" s="4">
+        <v>0</v>
+      </c>
+      <c r="T11" s="5">
         <v>378</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B12" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C12" s="4">
         <v>23.008849557522122</v>
       </c>
-      <c r="D12" s="1">
+      <c r="D12" s="4">
         <v>5.7522123893805306</v>
       </c>
-      <c r="E12" s="1">
+      <c r="E12" s="4">
         <v>0.44247787610619471</v>
       </c>
-      <c r="F12" s="1">
+      <c r="F12" s="4">
         <v>70.796460176991147</v>
       </c>
-      <c r="G12" s="1">
-        <v>0</v>
-      </c>
-      <c r="H12" s="4">
+      <c r="G12" s="4">
+        <v>0</v>
+      </c>
+      <c r="H12" s="5">
         <v>226</v>
       </c>
-      <c r="I12" s="1">
+      <c r="I12" s="4">
         <v>44.805194805194802</v>
       </c>
-      <c r="J12" s="1">
+      <c r="J12" s="4">
         <v>34.415584415584412</v>
       </c>
-      <c r="K12" s="1">
-        <v>0</v>
-      </c>
-      <c r="L12" s="1">
+      <c r="K12" s="4">
+        <v>0</v>
+      </c>
+      <c r="L12" s="4">
         <v>20.779220779220779</v>
       </c>
-      <c r="M12" s="1">
-        <v>0</v>
-      </c>
-      <c r="N12" s="4">
+      <c r="M12" s="4">
+        <v>0</v>
+      </c>
+      <c r="N12" s="5">
         <v>154</v>
       </c>
-      <c r="O12" s="1">
+      <c r="O12" s="4">
         <v>31.842105263157894</v>
       </c>
-      <c r="P12" s="1">
+      <c r="P12" s="4">
         <v>17.368421052631579</v>
       </c>
-      <c r="Q12" s="1">
+      <c r="Q12" s="4">
         <v>0.26315789473684209</v>
       </c>
-      <c r="R12" s="1">
+      <c r="R12" s="4">
         <v>50.526315789473685</v>
       </c>
-      <c r="S12" s="1">
-        <v>0</v>
-      </c>
-      <c r="T12" s="4">
+      <c r="S12" s="4">
+        <v>0</v>
+      </c>
+      <c r="T12" s="5">
         <v>380</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B13" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="1">
+      <c r="C13" s="4">
         <v>20.087336244541486</v>
       </c>
-      <c r="D13" s="1">
+      <c r="D13" s="4">
         <v>37.991266375545848</v>
       </c>
-      <c r="E13" s="1">
+      <c r="E13" s="4">
         <v>27.94759825327511</v>
       </c>
-      <c r="F13" s="1">
+      <c r="F13" s="4">
         <v>9.606986899563319</v>
       </c>
-      <c r="G13" s="1">
+      <c r="G13" s="4">
         <v>4.3668122270742362</v>
       </c>
-      <c r="H13" s="4">
+      <c r="H13" s="5">
         <v>229</v>
       </c>
-      <c r="I13" s="1">
+      <c r="I13" s="4">
         <v>17.592592592592592</v>
       </c>
-      <c r="J13" s="1">
+      <c r="J13" s="4">
         <v>42.592592592592595</v>
       </c>
-      <c r="K13" s="1">
+      <c r="K13" s="4">
         <v>29.62962962962963</v>
       </c>
-      <c r="L13" s="1">
+      <c r="L13" s="4">
         <v>8.3333333333333339</v>
       </c>
-      <c r="M13" s="1">
+      <c r="M13" s="4">
         <v>1.8518518518518519</v>
       </c>
-      <c r="N13" s="4">
+      <c r="N13" s="5">
         <v>108</v>
       </c>
-      <c r="O13" s="1">
+      <c r="O13" s="4">
         <v>19.287833827893174</v>
       </c>
-      <c r="P13" s="1">
+      <c r="P13" s="4">
         <v>39.465875370919882</v>
       </c>
-      <c r="Q13" s="1">
+      <c r="Q13" s="4">
         <v>28.486646884272997</v>
       </c>
-      <c r="R13" s="1">
+      <c r="R13" s="4">
         <v>9.1988130563798212</v>
       </c>
-      <c r="S13" s="1">
+      <c r="S13" s="4">
         <v>3.5608308605341246</v>
       </c>
-      <c r="T13" s="4">
+      <c r="T13" s="5">
         <v>337</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B14" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="1">
+      <c r="C14" s="4">
         <v>8.9430894308943092</v>
       </c>
-      <c r="D14" s="1">
+      <c r="D14" s="4">
         <v>42.27642276422764</v>
       </c>
-      <c r="E14" s="1">
+      <c r="E14" s="4">
         <v>43.902439024390247</v>
       </c>
-      <c r="F14" s="1">
+      <c r="F14" s="4">
         <v>4.0650406504065044</v>
       </c>
-      <c r="G14" s="1">
+      <c r="G14" s="4">
         <v>0.81300813008130079</v>
       </c>
-      <c r="H14" s="4">
+      <c r="H14" s="5">
         <v>123</v>
       </c>
-      <c r="I14" s="1">
+      <c r="I14" s="4">
         <v>15.53784860557769</v>
       </c>
-      <c r="J14" s="1">
+      <c r="J14" s="4">
         <v>45.019920318725099</v>
       </c>
-      <c r="K14" s="1">
+      <c r="K14" s="4">
         <v>35.059760956175296</v>
       </c>
-      <c r="L14" s="1">
+      <c r="L14" s="4">
         <v>3.5856573705179282</v>
       </c>
-      <c r="M14" s="1">
+      <c r="M14" s="4">
         <v>0.79681274900398402</v>
       </c>
-      <c r="N14" s="4">
+      <c r="N14" s="5">
         <v>251</v>
       </c>
-      <c r="O14" s="1">
+      <c r="O14" s="4">
         <v>13.368983957219251</v>
       </c>
-      <c r="P14" s="1">
+      <c r="P14" s="4">
         <v>44.117647058823529</v>
       </c>
-      <c r="Q14" s="1">
+      <c r="Q14" s="4">
         <v>37.967914438502675</v>
       </c>
-      <c r="R14" s="1">
+      <c r="R14" s="4">
         <v>3.7433155080213902</v>
       </c>
-      <c r="S14" s="1">
+      <c r="S14" s="4">
         <v>0.80213903743315507</v>
       </c>
-      <c r="T14" s="4">
+      <c r="T14" s="5">
         <v>374</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B15" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="1">
+      <c r="C15" s="4">
         <v>41.666666666666664</v>
       </c>
-      <c r="D15" s="1">
+      <c r="D15" s="4">
         <v>31.25</v>
       </c>
-      <c r="E15" s="1">
-        <v>0</v>
-      </c>
-      <c r="F15" s="1">
+      <c r="E15" s="4">
+        <v>0</v>
+      </c>
+      <c r="F15" s="4">
         <v>25</v>
       </c>
-      <c r="G15" s="1">
+      <c r="G15" s="4">
         <v>2.0833333333333335</v>
       </c>
-      <c r="H15" s="4">
+      <c r="H15" s="5">
         <v>48</v>
       </c>
-      <c r="I15" s="1">
+      <c r="I15" s="4">
         <v>51.044776119402982</v>
       </c>
-      <c r="J15" s="1">
+      <c r="J15" s="4">
         <v>23.582089552238806</v>
       </c>
-      <c r="K15" s="1">
+      <c r="K15" s="4">
         <v>2.08955223880597</v>
       </c>
-      <c r="L15" s="1">
+      <c r="L15" s="4">
         <v>22.985074626865671</v>
       </c>
-      <c r="M15" s="1">
+      <c r="M15" s="4">
         <v>0.29850746268656714</v>
       </c>
-      <c r="N15" s="4">
+      <c r="N15" s="5">
         <v>335</v>
       </c>
-      <c r="O15" s="1">
+      <c r="O15" s="4">
         <v>49.869451697127936</v>
       </c>
-      <c r="P15" s="1">
+      <c r="P15" s="4">
         <v>24.543080939947782</v>
       </c>
-      <c r="Q15" s="1">
+      <c r="Q15" s="4">
         <v>1.8276762402088773</v>
       </c>
-      <c r="R15" s="1">
+      <c r="R15" s="4">
         <v>23.237597911227155</v>
       </c>
-      <c r="S15" s="1">
+      <c r="S15" s="4">
         <v>0.52219321148825071</v>
       </c>
-      <c r="T15" s="4">
+      <c r="T15" s="5">
         <v>383</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B16" t="s">
         <v>29</v>
       </c>
-      <c r="C16" s="1">
+      <c r="C16" s="4">
         <v>28.666666666666668</v>
       </c>
-      <c r="D16" s="1">
+      <c r="D16" s="4">
         <v>44</v>
       </c>
-      <c r="E16" s="1">
+      <c r="E16" s="4">
         <v>7.333333333333333</v>
       </c>
-      <c r="F16" s="1">
+      <c r="F16" s="4">
         <v>18.666666666666668</v>
       </c>
-      <c r="G16" s="1">
+      <c r="G16" s="4">
         <v>1.3333333333333333</v>
       </c>
-      <c r="H16" s="4">
+      <c r="H16" s="5">
         <v>150</v>
       </c>
-      <c r="I16" s="1">
+      <c r="I16" s="4">
         <v>51.694915254237287</v>
       </c>
-      <c r="J16" s="1">
+      <c r="J16" s="4">
         <v>13.135593220338983</v>
       </c>
-      <c r="K16" s="1">
+      <c r="K16" s="4">
         <v>3.3898305084745761</v>
       </c>
-      <c r="L16" s="1">
+      <c r="L16" s="4">
         <v>31.35593220338983</v>
       </c>
-      <c r="M16" s="1">
+      <c r="M16" s="4">
         <v>0.42372881355932202</v>
       </c>
-      <c r="N16" s="4">
+      <c r="N16" s="5">
         <v>236</v>
       </c>
-      <c r="O16" s="1">
+      <c r="O16" s="4">
         <v>42.746113989637308</v>
       </c>
-      <c r="P16" s="1">
+      <c r="P16" s="4">
         <v>25.129533678756477</v>
       </c>
-      <c r="Q16" s="1">
+      <c r="Q16" s="4">
         <v>4.9222797927461137</v>
       </c>
-      <c r="R16" s="1">
+      <c r="R16" s="4">
         <v>26.424870466321245</v>
       </c>
-      <c r="S16" s="1">
+      <c r="S16" s="4">
         <v>0.77720207253886009</v>
       </c>
-      <c r="T16" s="4">
+      <c r="T16" s="5">
         <v>386</v>
       </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B17" t="s">
         <v>31</v>
       </c>
-      <c r="C17" s="1">
-        <v>0</v>
-      </c>
-      <c r="D17" s="1">
-        <v>0</v>
-      </c>
-      <c r="E17" s="1">
-        <v>0</v>
-      </c>
-      <c r="F17" s="1">
-        <v>0</v>
-      </c>
-      <c r="G17" s="1">
-        <v>0</v>
-      </c>
-      <c r="H17" s="4">
-        <v>0</v>
-      </c>
-      <c r="I17" s="1">
+      <c r="C17" s="4">
+        <v>0</v>
+      </c>
+      <c r="D17" s="4">
+        <v>0</v>
+      </c>
+      <c r="E17" s="4">
+        <v>0</v>
+      </c>
+      <c r="F17" s="4">
+        <v>0</v>
+      </c>
+      <c r="G17" s="4">
+        <v>0</v>
+      </c>
+      <c r="H17" s="5">
+        <v>0</v>
+      </c>
+      <c r="I17" s="4">
         <v>24.802110817941951</v>
       </c>
-      <c r="J17" s="1">
+      <c r="J17" s="4">
         <v>42.21635883905013</v>
       </c>
-      <c r="K17" s="1">
+      <c r="K17" s="4">
         <v>21.899736147757256</v>
       </c>
-      <c r="L17" s="1">
+      <c r="L17" s="4">
         <v>9.7625329815303434</v>
       </c>
-      <c r="M17" s="1">
+      <c r="M17" s="4">
         <v>1.3192612137203166</v>
       </c>
-      <c r="N17" s="4">
+      <c r="N17" s="5">
         <v>379</v>
       </c>
-      <c r="O17" s="1">
+      <c r="O17" s="4">
         <v>24.802110817941951</v>
       </c>
-      <c r="P17" s="1">
+      <c r="P17" s="4">
         <v>42.21635883905013</v>
       </c>
-      <c r="Q17" s="1">
+      <c r="Q17" s="4">
         <v>21.899736147757256</v>
       </c>
-      <c r="R17" s="1">
+      <c r="R17" s="4">
         <v>9.7625329815303434</v>
       </c>
-      <c r="S17" s="1">
+      <c r="S17" s="4">
         <v>1.3192612137203166</v>
       </c>
-      <c r="T17" s="4">
+      <c r="T17" s="5">
         <v>379</v>
       </c>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B18" t="s">
         <v>33</v>
       </c>
-      <c r="C18" s="1">
+      <c r="C18" s="4">
         <v>29.72972972972973</v>
       </c>
-      <c r="D18" s="1">
+      <c r="D18" s="4">
         <v>45.945945945945944</v>
       </c>
-      <c r="E18" s="1">
+      <c r="E18" s="4">
         <v>8.1081081081081088</v>
       </c>
-      <c r="F18" s="1">
+      <c r="F18" s="4">
         <v>10.810810810810811</v>
       </c>
-      <c r="G18" s="1">
+      <c r="G18" s="4">
         <v>5.4054054054054053</v>
       </c>
-      <c r="H18" s="4">
+      <c r="H18" s="5">
         <v>37</v>
       </c>
-      <c r="I18" s="1">
+      <c r="I18" s="4">
         <v>26.347305389221557</v>
       </c>
-      <c r="J18" s="1">
+      <c r="J18" s="4">
         <v>48.50299401197605</v>
       </c>
-      <c r="K18" s="1">
+      <c r="K18" s="4">
         <v>9.8802395209580833</v>
       </c>
-      <c r="L18" s="1">
+      <c r="L18" s="4">
         <v>12.574850299401197</v>
       </c>
-      <c r="M18" s="1">
+      <c r="M18" s="4">
         <v>2.6946107784431139</v>
       </c>
-      <c r="N18" s="4">
+      <c r="N18" s="5">
         <v>334</v>
       </c>
-      <c r="O18" s="1">
+      <c r="O18" s="4">
         <v>26.684636118598384</v>
       </c>
-      <c r="P18" s="1">
+      <c r="P18" s="4">
         <v>48.247978436657682</v>
       </c>
-      <c r="Q18" s="1">
+      <c r="Q18" s="4">
         <v>9.703504043126685</v>
       </c>
-      <c r="R18" s="1">
+      <c r="R18" s="4">
         <v>12.398921832884097</v>
       </c>
-      <c r="S18" s="1">
+      <c r="S18" s="4">
         <v>2.9649595687331538</v>
       </c>
-      <c r="T18" s="4">
+      <c r="T18" s="5">
         <v>371</v>
       </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B19" t="s">
         <v>35</v>
       </c>
-      <c r="C19" s="1">
-        <v>0</v>
-      </c>
-      <c r="D19" s="1">
+      <c r="C19" s="4">
+        <v>0</v>
+      </c>
+      <c r="D19" s="4">
         <v>29.885057471264368</v>
       </c>
-      <c r="E19" s="1">
+      <c r="E19" s="4">
         <v>70.114942528735625</v>
       </c>
-      <c r="F19" s="1">
-        <v>0</v>
-      </c>
-      <c r="G19" s="1">
-        <v>0</v>
-      </c>
-      <c r="H19" s="4">
+      <c r="F19" s="4">
+        <v>0</v>
+      </c>
+      <c r="G19" s="4">
+        <v>0</v>
+      </c>
+      <c r="H19" s="5">
         <v>174</v>
       </c>
-      <c r="I19" s="1">
-        <v>0</v>
-      </c>
-      <c r="J19" s="1">
+      <c r="I19" s="4">
+        <v>0</v>
+      </c>
+      <c r="J19" s="4">
         <v>51.912568306010932</v>
       </c>
-      <c r="K19" s="1">
+      <c r="K19" s="4">
         <v>48.087431693989068</v>
       </c>
-      <c r="L19" s="1">
-        <v>0</v>
-      </c>
-      <c r="M19" s="1">
-        <v>0</v>
-      </c>
-      <c r="N19" s="4">
+      <c r="L19" s="4">
+        <v>0</v>
+      </c>
+      <c r="M19" s="4">
+        <v>0</v>
+      </c>
+      <c r="N19" s="5">
         <v>183</v>
       </c>
-      <c r="O19" s="1">
-        <v>0</v>
-      </c>
-      <c r="P19" s="1">
+      <c r="O19" s="4">
+        <v>0</v>
+      </c>
+      <c r="P19" s="4">
         <v>41.176470588235297</v>
       </c>
-      <c r="Q19" s="1">
+      <c r="Q19" s="4">
         <v>58.823529411764703</v>
       </c>
-      <c r="R19" s="1">
-        <v>0</v>
-      </c>
-      <c r="S19" s="1">
-        <v>0</v>
-      </c>
-      <c r="T19" s="4">
+      <c r="R19" s="4">
+        <v>0</v>
+      </c>
+      <c r="S19" s="4">
+        <v>0</v>
+      </c>
+      <c r="T19" s="5">
         <v>357</v>
       </c>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
         <v>36</v>
       </c>
       <c r="B20" t="s">
         <v>37</v>
       </c>
-      <c r="C20" s="1">
+      <c r="C20" s="4">
         <v>15.151515151515152</v>
       </c>
-      <c r="D20" s="1">
+      <c r="D20" s="4">
         <v>30.303030303030305</v>
       </c>
-      <c r="E20" s="1">
+      <c r="E20" s="4">
         <v>27.272727272727273</v>
       </c>
-      <c r="F20" s="1">
+      <c r="F20" s="4">
         <v>21.212121212121211</v>
       </c>
-      <c r="G20" s="1">
+      <c r="G20" s="4">
         <v>6.0606060606060606</v>
       </c>
-      <c r="H20" s="4">
+      <c r="H20" s="5">
         <v>33</v>
       </c>
-      <c r="I20" s="1">
+      <c r="I20" s="4">
         <v>32.791327913279133</v>
       </c>
-      <c r="J20" s="1">
+      <c r="J20" s="4">
         <v>44.715447154471548</v>
       </c>
-      <c r="K20" s="1">
+      <c r="K20" s="4">
         <v>10.56910569105691</v>
       </c>
-      <c r="L20" s="1">
+      <c r="L20" s="4">
         <v>11.653116531165312</v>
       </c>
-      <c r="M20" s="1">
+      <c r="M20" s="4">
         <v>0.27100271002710025</v>
       </c>
-      <c r="N20" s="4">
+      <c r="N20" s="5">
         <v>369</v>
       </c>
-      <c r="O20" s="1">
+      <c r="O20" s="4">
         <v>31.343283582089551</v>
       </c>
-      <c r="P20" s="1">
+      <c r="P20" s="4">
         <v>43.53233830845771</v>
       </c>
-      <c r="Q20" s="1">
+      <c r="Q20" s="4">
         <v>11.940298507462687</v>
       </c>
-      <c r="R20" s="1">
+      <c r="R20" s="4">
         <v>12.437810945273633</v>
       </c>
-      <c r="S20" s="1">
+      <c r="S20" s="4">
         <v>0.74626865671641796</v>
       </c>
-      <c r="T20" s="4">
+      <c r="T20" s="5">
         <v>402</v>
       </c>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B21" t="s">
         <v>39</v>
       </c>
-      <c r="C21" s="1">
+      <c r="C21" s="4">
         <v>23.152709359605911</v>
       </c>
-      <c r="D21" s="1">
+      <c r="D21" s="4">
         <v>44.334975369458128</v>
       </c>
-      <c r="E21" s="1">
+      <c r="E21" s="4">
         <v>21.674876847290641</v>
       </c>
-      <c r="F21" s="1">
+      <c r="F21" s="4">
         <v>9.8522167487684733</v>
       </c>
-      <c r="G21" s="1">
+      <c r="G21" s="4">
         <v>0.98522167487684731</v>
       </c>
-      <c r="H21" s="4">
+      <c r="H21" s="5">
         <v>203</v>
       </c>
-      <c r="I21" s="1">
+      <c r="I21" s="4">
         <v>23.888888888888889</v>
       </c>
-      <c r="J21" s="1">
+      <c r="J21" s="4">
         <v>40.555555555555557</v>
       </c>
-      <c r="K21" s="1">
+      <c r="K21" s="4">
         <v>21.666666666666668</v>
       </c>
-      <c r="L21" s="1">
+      <c r="L21" s="4">
         <v>12.777777777777779</v>
       </c>
-      <c r="M21" s="1">
+      <c r="M21" s="4">
         <v>1.1111111111111112</v>
       </c>
-      <c r="N21" s="4">
+      <c r="N21" s="5">
         <v>180</v>
       </c>
-      <c r="O21" s="1">
+      <c r="O21" s="4">
         <v>23.49869451697128</v>
       </c>
-      <c r="P21" s="1">
+      <c r="P21" s="4">
         <v>42.558746736292427</v>
       </c>
-      <c r="Q21" s="1">
+      <c r="Q21" s="4">
         <v>21.671018276762403</v>
       </c>
-      <c r="R21" s="1">
+      <c r="R21" s="4">
         <v>11.22715404699739</v>
       </c>
-      <c r="S21" s="1">
+      <c r="S21" s="4">
         <v>1.0443864229765014</v>
       </c>
-      <c r="T21" s="4">
+      <c r="T21" s="5">
         <v>383</v>
       </c>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
         <v>40</v>
       </c>
       <c r="B22" t="s">
         <v>41</v>
       </c>
-      <c r="C22" s="1">
+      <c r="C22" s="4">
         <v>17.341040462427745</v>
       </c>
-      <c r="D22" s="1">
+      <c r="D22" s="4">
         <v>40.462427745664741</v>
       </c>
-      <c r="E22" s="1">
+      <c r="E22" s="4">
         <v>28.323699421965319</v>
       </c>
-      <c r="F22" s="1">
+      <c r="F22" s="4">
         <v>12.716763005780347</v>
       </c>
-      <c r="G22" s="1">
+      <c r="G22" s="4">
         <v>1.1560693641618498</v>
       </c>
-      <c r="H22" s="4">
+      <c r="H22" s="5">
         <v>173</v>
       </c>
-      <c r="I22" s="1">
+      <c r="I22" s="4">
         <v>19.024390243902438</v>
       </c>
-      <c r="J22" s="1">
+      <c r="J22" s="4">
         <v>46.341463414634148</v>
       </c>
-      <c r="K22" s="1">
+      <c r="K22" s="4">
         <v>14.634146341463415</v>
       </c>
-      <c r="L22" s="1">
+      <c r="L22" s="4">
         <v>16.097560975609756</v>
       </c>
-      <c r="M22" s="1">
+      <c r="M22" s="4">
         <v>3.9024390243902438</v>
       </c>
-      <c r="N22" s="4">
+      <c r="N22" s="5">
         <v>205</v>
       </c>
-      <c r="O22" s="1">
+      <c r="O22" s="4">
         <v>18.253968253968253</v>
       </c>
-      <c r="P22" s="1">
+      <c r="P22" s="4">
         <v>43.650793650793652</v>
       </c>
-      <c r="Q22" s="1">
+      <c r="Q22" s="4">
         <v>20.899470899470899</v>
       </c>
-      <c r="R22" s="1">
+      <c r="R22" s="4">
         <v>14.550264550264551</v>
       </c>
-      <c r="S22" s="1">
+      <c r="S22" s="4">
         <v>2.6455026455026456</v>
       </c>
-      <c r="T22" s="4">
+      <c r="T22" s="5">
         <v>378</v>
       </c>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
         <v>42</v>
       </c>
       <c r="B23" t="s">
         <v>43</v>
       </c>
-      <c r="C23" s="1">
+      <c r="C23" s="4">
         <v>17.021276595744681</v>
       </c>
-      <c r="D23" s="1">
+      <c r="D23" s="4">
         <v>47.872340425531917</v>
       </c>
-      <c r="E23" s="1">
+      <c r="E23" s="4">
         <v>26.595744680851062</v>
       </c>
-      <c r="F23" s="1">
+      <c r="F23" s="4">
         <v>8.5106382978723403</v>
       </c>
-      <c r="G23" s="1">
-        <v>0</v>
-      </c>
-      <c r="H23" s="4">
+      <c r="G23" s="4">
+        <v>0</v>
+      </c>
+      <c r="H23" s="5">
         <v>188</v>
       </c>
-      <c r="I23" s="1">
+      <c r="I23" s="4">
         <v>27.319587628865978</v>
       </c>
-      <c r="J23" s="1">
+      <c r="J23" s="4">
         <v>41.75257731958763</v>
       </c>
-      <c r="K23" s="1">
+      <c r="K23" s="4">
         <v>19.072164948453608</v>
       </c>
-      <c r="L23" s="1">
+      <c r="L23" s="4">
         <v>10.824742268041238</v>
       </c>
-      <c r="M23" s="1">
+      <c r="M23" s="4">
         <v>1.0309278350515463</v>
       </c>
-      <c r="N23" s="4">
+      <c r="N23" s="5">
         <v>194</v>
       </c>
-      <c r="O23" s="1">
+      <c r="O23" s="4">
         <v>22.251308900523561</v>
       </c>
-      <c r="P23" s="1">
+      <c r="P23" s="4">
         <v>44.764397905759161</v>
       </c>
-      <c r="Q23" s="1">
+      <c r="Q23" s="4">
         <v>22.774869109947645</v>
       </c>
-      <c r="R23" s="1">
+      <c r="R23" s="4">
         <v>9.6858638743455501</v>
       </c>
-      <c r="S23" s="1">
+      <c r="S23" s="4">
         <v>0.52356020942408377</v>
       </c>
-      <c r="T23" s="4">
+      <c r="T23" s="5">
         <v>382</v>
       </c>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
         <v>44</v>
       </c>
       <c r="B24" t="s">
         <v>45</v>
       </c>
-      <c r="C24" s="1">
+      <c r="C24" s="4">
         <v>0.94043887147335425</v>
       </c>
-      <c r="D24" s="1">
+      <c r="D24" s="4">
         <v>17.554858934169278</v>
       </c>
-      <c r="E24" s="1">
+      <c r="E24" s="4">
         <v>65.517241379310349</v>
       </c>
-      <c r="F24" s="1">
+      <c r="F24" s="4">
         <v>0.62695924764890287</v>
       </c>
-      <c r="G24" s="1">
+      <c r="G24" s="4">
         <v>15.360501567398119</v>
       </c>
-      <c r="H24" s="4">
+      <c r="H24" s="5">
         <v>319</v>
       </c>
-      <c r="I24" s="1">
+      <c r="I24" s="4">
         <v>1.6129032258064515</v>
       </c>
-      <c r="J24" s="1">
+      <c r="J24" s="4">
         <v>29.032258064516128</v>
       </c>
-      <c r="K24" s="1">
+      <c r="K24" s="4">
         <v>67.741935483870961</v>
       </c>
-      <c r="L24" s="1">
-        <v>0</v>
-      </c>
-      <c r="M24" s="1">
+      <c r="L24" s="4">
+        <v>0</v>
+      </c>
+      <c r="M24" s="4">
         <v>1.6129032258064515</v>
       </c>
-      <c r="N24" s="4">
+      <c r="N24" s="5">
         <v>62</v>
       </c>
-      <c r="O24" s="1">
+      <c r="O24" s="4">
         <v>1.0498687664041995</v>
       </c>
-      <c r="P24" s="1">
+      <c r="P24" s="4">
         <v>19.42257217847769</v>
       </c>
-      <c r="Q24" s="1">
+      <c r="Q24" s="4">
         <v>65.879265091863516</v>
       </c>
-      <c r="R24" s="1">
+      <c r="R24" s="4">
         <v>0.52493438320209973</v>
       </c>
-      <c r="S24" s="1">
+      <c r="S24" s="4">
         <v>13.123359580052494</v>
       </c>
-      <c r="T24" s="4">
+      <c r="T24" s="5">
         <v>381</v>
       </c>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
         <v>46</v>
       </c>
       <c r="B25" t="s">
         <v>47</v>
       </c>
-      <c r="C25" s="1">
+      <c r="C25" s="4">
         <v>21.276595744680851</v>
       </c>
-      <c r="D25" s="1">
+      <c r="D25" s="4">
         <v>37.765957446808514</v>
       </c>
-      <c r="E25" s="1">
+      <c r="E25" s="4">
         <v>37.234042553191486</v>
       </c>
-      <c r="F25" s="1">
+      <c r="F25" s="4">
         <v>3.1914893617021276</v>
       </c>
-      <c r="G25" s="1">
+      <c r="G25" s="4">
         <v>0.53191489361702127</v>
       </c>
-      <c r="H25" s="4">
+      <c r="H25" s="5">
         <v>188</v>
       </c>
-      <c r="I25" s="1">
+      <c r="I25" s="4">
         <v>22.395833333333332</v>
       </c>
-      <c r="J25" s="1">
+      <c r="J25" s="4">
         <v>41.666666666666664</v>
       </c>
-      <c r="K25" s="1">
+      <c r="K25" s="4">
         <v>26.5625</v>
       </c>
-      <c r="L25" s="1">
+      <c r="L25" s="4">
         <v>7.291666666666667</v>
       </c>
-      <c r="M25" s="1">
+      <c r="M25" s="4">
         <v>2.0833333333333335</v>
       </c>
-      <c r="N25" s="4">
+      <c r="N25" s="5">
         <v>192</v>
       </c>
-      <c r="O25" s="1">
+      <c r="O25" s="4">
         <v>21.842105263157894</v>
       </c>
-      <c r="P25" s="1">
+      <c r="P25" s="4">
         <v>39.736842105263158</v>
       </c>
-      <c r="Q25" s="1">
+      <c r="Q25" s="4">
         <v>31.842105263157894</v>
       </c>
-      <c r="R25" s="1">
+      <c r="R25" s="4">
         <v>5.2631578947368425</v>
       </c>
-      <c r="S25" s="1">
+      <c r="S25" s="4">
         <v>1.3157894736842106</v>
       </c>
-      <c r="T25" s="4">
+      <c r="T25" s="5">
         <v>380</v>
       </c>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
         <v>48</v>
       </c>
       <c r="B26" t="s">
         <v>49</v>
       </c>
-      <c r="C26" s="1">
+      <c r="C26" s="4">
         <v>14.434782608695652</v>
       </c>
-      <c r="D26" s="1">
+      <c r="D26" s="4">
         <v>64.695652173913047</v>
       </c>
-      <c r="E26" s="1">
+      <c r="E26" s="4">
         <v>18.086956521739129</v>
       </c>
-      <c r="F26" s="1">
+      <c r="F26" s="4">
         <v>1.5652173913043479</v>
       </c>
-      <c r="G26" s="1">
+      <c r="G26" s="4">
         <v>1.2173913043478262</v>
       </c>
-      <c r="H26" s="4">
+      <c r="H26" s="5">
         <v>575</v>
       </c>
-      <c r="I26" s="1">
+      <c r="I26" s="4">
         <v>36.195410806809768</v>
       </c>
-      <c r="J26" s="1">
+      <c r="J26" s="4">
         <v>23.612139156180607</v>
       </c>
-      <c r="K26" s="1">
+      <c r="K26" s="4">
         <v>12.879348630643968</v>
       </c>
-      <c r="L26" s="1">
+      <c r="L26" s="4">
         <v>23.242042931162104</v>
       </c>
-      <c r="M26" s="1">
+      <c r="M26" s="4">
         <v>4.0710584752035528</v>
       </c>
-      <c r="N26" s="4">
+      <c r="N26" s="5">
         <v>1351</v>
       </c>
-      <c r="O26" s="1">
+      <c r="O26" s="4">
         <v>29.698857736240914</v>
       </c>
-      <c r="P26" s="1">
+      <c r="P26" s="4">
         <v>35.877466251298024</v>
       </c>
-      <c r="Q26" s="1">
+      <c r="Q26" s="4">
         <v>14.434060228452752</v>
       </c>
-      <c r="R26" s="1">
+      <c r="R26" s="4">
         <v>16.770508826583594</v>
       </c>
-      <c r="S26" s="1">
+      <c r="S26" s="4">
         <v>3.2191069574247146</v>
       </c>
-      <c r="T26" s="4">
+      <c r="T26" s="5">
         <v>1926</v>
       </c>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
         <v>50</v>
       </c>
       <c r="B27" t="s">
         <v>51</v>
       </c>
-      <c r="C27" s="1">
+      <c r="C27" s="4">
         <v>32.352941176470587</v>
       </c>
-      <c r="D27" s="1">
+      <c r="D27" s="4">
         <v>61.764705882352942</v>
       </c>
-      <c r="E27" s="1">
+      <c r="E27" s="4">
         <v>4.4117647058823533</v>
       </c>
-      <c r="F27" s="1">
+      <c r="F27" s="4">
         <v>1.4705882352941178</v>
       </c>
-      <c r="G27" s="1">
-        <v>0</v>
-      </c>
-      <c r="H27" s="4">
+      <c r="G27" s="4">
+        <v>0</v>
+      </c>
+      <c r="H27" s="5">
         <v>136</v>
       </c>
-      <c r="I27" s="1">
+      <c r="I27" s="4">
         <v>22.264150943396228</v>
       </c>
-      <c r="J27" s="1">
+      <c r="J27" s="4">
         <v>62.264150943396224</v>
       </c>
-      <c r="K27" s="1">
+      <c r="K27" s="4">
         <v>7.5471698113207548</v>
       </c>
-      <c r="L27" s="1">
+      <c r="L27" s="4">
         <v>7.1698113207547172</v>
       </c>
-      <c r="M27" s="1">
+      <c r="M27" s="4">
         <v>0.75471698113207553</v>
       </c>
-      <c r="N27" s="4">
+      <c r="N27" s="5">
         <v>530</v>
       </c>
-      <c r="O27" s="1">
+      <c r="O27" s="4">
         <v>24.324324324324323</v>
       </c>
-      <c r="P27" s="1">
+      <c r="P27" s="4">
         <v>62.162162162162161</v>
       </c>
-      <c r="Q27" s="1">
+      <c r="Q27" s="4">
         <v>6.9069069069069071</v>
       </c>
-      <c r="R27" s="1">
+      <c r="R27" s="4">
         <v>6.0060060060060056</v>
       </c>
-      <c r="S27" s="1">
+      <c r="S27" s="4">
         <v>0.60060060060060061</v>
       </c>
-      <c r="T27" s="4">
+      <c r="T27" s="5">
         <v>666</v>
       </c>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A28" s="2" t="s">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
         <v>52</v>
       </c>
       <c r="B28" t="s">
         <v>53</v>
       </c>
-      <c r="C28" s="1">
+      <c r="C28" s="4">
         <v>15.671641791044776</v>
       </c>
-      <c r="D28" s="1">
+      <c r="D28" s="4">
         <v>38.805970149253731</v>
       </c>
-      <c r="E28" s="1">
+      <c r="E28" s="4">
         <v>36.567164179104481</v>
       </c>
-      <c r="F28" s="1">
+      <c r="F28" s="4">
         <v>7.4626865671641793</v>
       </c>
-      <c r="G28" s="1">
+      <c r="G28" s="4">
         <v>1.4925373134328359</v>
       </c>
-      <c r="H28" s="4">
+      <c r="H28" s="5">
         <v>134</v>
       </c>
-      <c r="I28" s="1">
+      <c r="I28" s="4">
         <v>11.052631578947368</v>
       </c>
-      <c r="J28" s="1">
+      <c r="J28" s="4">
         <v>38.421052631578945</v>
       </c>
-      <c r="K28" s="1">
+      <c r="K28" s="4">
         <v>38.94736842105263</v>
       </c>
-      <c r="L28" s="1">
+      <c r="L28" s="4">
         <v>11.052631578947368</v>
       </c>
-      <c r="M28" s="1">
+      <c r="M28" s="4">
         <v>0.52631578947368418</v>
       </c>
-      <c r="N28" s="4">
+      <c r="N28" s="5">
         <v>190</v>
       </c>
-      <c r="O28" s="1">
+      <c r="O28" s="4">
         <v>12.962962962962964</v>
       </c>
-      <c r="P28" s="1">
+      <c r="P28" s="4">
         <v>38.580246913580247</v>
       </c>
-      <c r="Q28" s="1">
+      <c r="Q28" s="4">
         <v>37.962962962962962</v>
       </c>
-      <c r="R28" s="1">
+      <c r="R28" s="4">
         <v>9.567901234567902</v>
       </c>
-      <c r="S28" s="1">
+      <c r="S28" s="4">
         <v>0.92592592592592593</v>
       </c>
-      <c r="T28" s="4">
+      <c r="T28" s="5">
         <v>324</v>
       </c>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A29" s="2" t="s">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
         <v>54</v>
       </c>
       <c r="B29" t="s">
         <v>55</v>
       </c>
-      <c r="C29" s="1">
+      <c r="C29" s="4">
         <v>34.222222222222221</v>
       </c>
-      <c r="D29" s="1">
+      <c r="D29" s="4">
         <v>38.222222222222221</v>
       </c>
-      <c r="E29" s="1">
+      <c r="E29" s="4">
         <v>20.888888888888889</v>
       </c>
-      <c r="F29" s="1">
+      <c r="F29" s="4">
         <v>6.666666666666667</v>
       </c>
-      <c r="G29" s="1">
-        <v>0</v>
-      </c>
-      <c r="H29" s="4">
+      <c r="G29" s="4">
+        <v>0</v>
+      </c>
+      <c r="H29" s="5">
         <v>225</v>
       </c>
-      <c r="I29" s="1">
+      <c r="I29" s="4">
         <v>18.852459016393443</v>
       </c>
-      <c r="J29" s="1">
+      <c r="J29" s="4">
         <v>37.704918032786885</v>
       </c>
-      <c r="K29" s="1">
+      <c r="K29" s="4">
         <v>32.786885245901637</v>
       </c>
-      <c r="L29" s="1">
+      <c r="L29" s="4">
         <v>10.655737704918034</v>
       </c>
-      <c r="M29" s="1">
-        <v>0</v>
-      </c>
-      <c r="N29" s="4">
+      <c r="M29" s="4">
+        <v>0</v>
+      </c>
+      <c r="N29" s="5">
         <v>122</v>
       </c>
-      <c r="O29" s="1">
+      <c r="O29" s="4">
         <v>28.818443804034583</v>
       </c>
-      <c r="P29" s="1">
+      <c r="P29" s="4">
         <v>38.040345821325651</v>
       </c>
-      <c r="Q29" s="1">
+      <c r="Q29" s="4">
         <v>25.072046109510087</v>
       </c>
-      <c r="R29" s="1">
+      <c r="R29" s="4">
         <v>8.0691642651296824</v>
       </c>
-      <c r="S29" s="1">
-        <v>0</v>
-      </c>
-      <c r="T29" s="4">
+      <c r="S29" s="4">
+        <v>0</v>
+      </c>
+      <c r="T29" s="5">
         <v>347</v>
       </c>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A30" s="2" t="s">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="s">
         <v>56</v>
       </c>
       <c r="B30" t="s">
         <v>57</v>
       </c>
-      <c r="C30" s="1">
+      <c r="C30" s="4">
         <v>12.903225806451612</v>
       </c>
-      <c r="D30" s="1">
+      <c r="D30" s="4">
         <v>33.548387096774192</v>
       </c>
-      <c r="E30" s="1">
+      <c r="E30" s="4">
         <v>52.903225806451616</v>
       </c>
-      <c r="F30" s="1">
+      <c r="F30" s="4">
         <v>0.64516129032258063</v>
       </c>
-      <c r="G30" s="1">
-        <v>0</v>
-      </c>
-      <c r="H30" s="4">
+      <c r="G30" s="4">
+        <v>0</v>
+      </c>
+      <c r="H30" s="5">
         <v>155</v>
       </c>
-      <c r="I30" s="1">
+      <c r="I30" s="4">
         <v>14.655172413793103</v>
       </c>
-      <c r="J30" s="1">
+      <c r="J30" s="4">
         <v>43.103448275862071</v>
       </c>
-      <c r="K30" s="1">
+      <c r="K30" s="4">
         <v>35.775862068965516</v>
       </c>
-      <c r="L30" s="1">
+      <c r="L30" s="4">
         <v>3.8793103448275863</v>
       </c>
-      <c r="M30" s="1">
+      <c r="M30" s="4">
         <v>2.5862068965517242</v>
       </c>
-      <c r="N30" s="4">
+      <c r="N30" s="5">
         <v>232</v>
       </c>
-      <c r="O30" s="1">
+      <c r="O30" s="4">
         <v>13.953488372093023</v>
       </c>
-      <c r="P30" s="1">
+      <c r="P30" s="4">
         <v>39.276485788113696</v>
       </c>
-      <c r="Q30" s="1">
+      <c r="Q30" s="4">
         <v>42.63565891472868</v>
       </c>
-      <c r="R30" s="1">
+      <c r="R30" s="4">
         <v>2.5839793281653747</v>
       </c>
-      <c r="S30" s="1">
+      <c r="S30" s="4">
         <v>1.5503875968992249</v>
       </c>
-      <c r="T30" s="4">
+      <c r="T30" s="5">
         <v>387</v>
       </c>
     </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A31" s="2" t="s">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A31" s="1" t="s">
         <v>58</v>
       </c>
       <c r="B31" t="s">
         <v>59</v>
       </c>
-      <c r="C31" s="1">
+      <c r="C31" s="4">
         <v>8.1081081081081088</v>
       </c>
-      <c r="D31" s="1">
+      <c r="D31" s="4">
         <v>25.225225225225227</v>
       </c>
-      <c r="E31" s="1">
+      <c r="E31" s="4">
         <v>63.063063063063062</v>
       </c>
-      <c r="F31" s="1">
+      <c r="F31" s="4">
         <v>2.7027027027027026</v>
       </c>
-      <c r="G31" s="1">
+      <c r="G31" s="4">
         <v>0.90090090090090091</v>
       </c>
-      <c r="H31" s="4">
+      <c r="H31" s="5">
         <v>111</v>
       </c>
-      <c r="I31" s="1">
+      <c r="I31" s="4">
         <v>33.088235294117645</v>
       </c>
-      <c r="J31" s="1">
+      <c r="J31" s="4">
         <v>43.75</v>
       </c>
-      <c r="K31" s="1">
+      <c r="K31" s="4">
         <v>15.073529411764707</v>
       </c>
-      <c r="L31" s="1">
+      <c r="L31" s="4">
         <v>6.9852941176470589</v>
       </c>
-      <c r="M31" s="1">
+      <c r="M31" s="4">
         <v>1.1029411764705883</v>
       </c>
-      <c r="N31" s="4">
+      <c r="N31" s="5">
         <v>272</v>
       </c>
-      <c r="O31" s="1">
+      <c r="O31" s="4">
         <v>25.848563968668408</v>
       </c>
-      <c r="P31" s="1">
+      <c r="P31" s="4">
         <v>38.381201044386422</v>
       </c>
-      <c r="Q31" s="1">
+      <c r="Q31" s="4">
         <v>28.981723237597912</v>
       </c>
-      <c r="R31" s="1">
+      <c r="R31" s="4">
         <v>5.7441253263707575</v>
       </c>
-      <c r="S31" s="1">
+      <c r="S31" s="4">
         <v>1.0443864229765014</v>
       </c>
-      <c r="T31" s="4">
+      <c r="T31" s="5">
         <v>383</v>
       </c>
     </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A32" s="2" t="s">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
         <v>60</v>
       </c>
       <c r="B32" t="s">
         <v>61</v>
       </c>
-      <c r="C32" s="1">
+      <c r="C32" s="4">
         <v>20</v>
       </c>
-      <c r="D32" s="1">
+      <c r="D32" s="4">
         <v>46.666666666666664</v>
       </c>
-      <c r="E32" s="1">
+      <c r="E32" s="4">
         <v>26.666666666666668</v>
       </c>
-      <c r="F32" s="1">
+      <c r="F32" s="4">
         <v>6.666666666666667</v>
       </c>
-      <c r="G32" s="1">
-        <v>0</v>
-      </c>
-      <c r="H32" s="4">
+      <c r="G32" s="4">
+        <v>0</v>
+      </c>
+      <c r="H32" s="5">
         <v>15</v>
       </c>
-      <c r="I32" s="1">
+      <c r="I32" s="4">
         <v>13.649025069637883</v>
       </c>
-      <c r="J32" s="1">
+      <c r="J32" s="4">
         <v>39.554317548746518</v>
       </c>
-      <c r="K32" s="1">
+      <c r="K32" s="4">
         <v>40.389972144846794</v>
       </c>
-      <c r="L32" s="1">
+      <c r="L32" s="4">
         <v>5.8495821727019495</v>
       </c>
-      <c r="M32" s="1">
+      <c r="M32" s="4">
         <v>0.55710306406685239</v>
       </c>
-      <c r="N32" s="4">
+      <c r="N32" s="5">
         <v>359</v>
       </c>
-      <c r="O32" s="1">
+      <c r="O32" s="4">
         <v>13.903743315508022</v>
       </c>
-      <c r="P32" s="1">
+      <c r="P32" s="4">
         <v>39.839572192513366</v>
       </c>
-      <c r="Q32" s="1">
+      <c r="Q32" s="4">
         <v>39.839572192513366</v>
       </c>
-      <c r="R32" s="1">
+      <c r="R32" s="4">
         <v>5.882352941176471</v>
       </c>
-      <c r="S32" s="1">
+      <c r="S32" s="4">
         <v>0.53475935828877008</v>
       </c>
-      <c r="T32" s="4">
+      <c r="T32" s="5">
         <v>374</v>
       </c>
     </row>
